--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1005,7 +1005,7 @@
     <t>Coverage.beneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-patient)
 </t>
   </si>
   <si>
@@ -1093,7 +1093,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-patient|https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-policy-holder-organization)
 </t>
   </si>
   <si>
@@ -7690,7 +7690,7 @@
         <v>76</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>76</v>
@@ -8719,7 +8719,7 @@
         <v>85</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -418,33 +418,66 @@
     <t>Coverage.extension</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>enrollDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/coverage-date}
+</t>
+  </si>
+  <si>
+    <t>Enrollment Date</t>
+  </si>
+  <si>
+    <t>Specifies the date of the enrollment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>effectiveDate</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Specifies the effective date from which the policy is valid.</t>
+  </si>
+  <si>
+    <t>Coverage.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Coverage.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -452,6 +485,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -520,17 +556,13 @@
     <t>Coverage.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -889,10 +921,13 @@
     <t>Coverage.status</t>
   </si>
   <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
+    <t>Coverage Status</t>
+  </si>
+  <si>
+    <t>Coverage Status:
+  * active: policy active or expired
+  * cancelled: policy suspended
+  * draft: policy idle</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
@@ -901,10 +936,7 @@
     <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
   </si>
   <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/coverage-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -943,7 +975,7 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-patient)
 </t>
   </si>
   <si>
@@ -1005,89 +1037,144 @@
     <t>Coverage.beneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/openimis-patient)
+    <t>Plan beneficiary</t>
+  </si>
+  <si>
+    <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.</t>
+  </si>
+  <si>
+    <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>Coverage.dependent</t>
+  </si>
+  <si>
+    <t>Dependent number</t>
+  </si>
+  <si>
+    <t>A unique identifier for a dependent under the coverage.</t>
+  </si>
+  <si>
+    <t>Periodically the member number is constructed from the subscriberId and the dependant number.</t>
+  </si>
+  <si>
+    <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>- No exact HL7 v2 equivalent concept seems to exist;</t>
+  </si>
+  <si>
+    <t>Coverage.relationship</t>
+  </si>
+  <si>
+    <t>Beneficiary relationship to the subscriber</t>
+  </si>
+  <si>
+    <t>The relationship of beneficiary (patient) to the subscriber.</t>
+  </si>
+  <si>
+    <t>Typically, an individual uses policies which are theirs (relationship='self') before policies owned by others.</t>
+  </si>
+  <si>
+    <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.</t>
+  </si>
+  <si>
+    <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Coverage.period</t>
+  </si>
+  <si>
+    <t>Coverage start and end dates</t>
+  </si>
+  <si>
+    <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
+  </si>
+  <si>
+    <t>Some insurers require the submission of the coverage term.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>IN1-12 / IN1-13</t>
+  </si>
+  <si>
+    <t>Coverage.period.id</t>
+  </si>
+  <si>
+    <t>Coverage.period.extension</t>
+  </si>
+  <si>
+    <t>Coverage.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Plan beneficiary</t>
-  </si>
-  <si>
-    <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.</t>
-  </si>
-  <si>
-    <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>Coverage.dependent</t>
-  </si>
-  <si>
-    <t>Dependent number</t>
-  </si>
-  <si>
-    <t>A unique identifier for a dependent under the coverage.</t>
-  </si>
-  <si>
-    <t>Periodically the member number is constructed from the subscriberId and the dependant number.</t>
-  </si>
-  <si>
-    <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>- No exact HL7 v2 equivalent concept seems to exist;</t>
-  </si>
-  <si>
-    <t>Coverage.relationship</t>
-  </si>
-  <si>
-    <t>Beneficiary relationship to the subscriber</t>
-  </si>
-  <si>
-    <t>The relationship of beneficiary (patient) to the subscriber.</t>
-  </si>
-  <si>
-    <t>Typically, an individual uses policies which are theirs (relationship='self') before policies owned by others.</t>
-  </si>
-  <si>
-    <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.</t>
-  </si>
-  <si>
-    <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-  <si>
-    <t>Coverage.period</t>
-  </si>
-  <si>
-    <t>Coverage start and end dates</t>
-  </si>
-  <si>
-    <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
-  </si>
-  <si>
-    <t>Some insurers require the submission of the coverage term.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>IN1-12 / IN1-13</t>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Date when the enrolment/renewal starts. Mapped to `Policy.StartDate`.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>Coverage.period.end</t>
+  </si>
+  <si>
+    <t>Expiry date</t>
+  </si>
+  <si>
+    <t>Date when the enrolment/renewal will actual end. Mapped to `Policy.ExpiryDate`.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
   </si>
   <si>
     <t>Coverage.payor</t>
@@ -1176,6 +1263,15 @@
     <t>The insurer issued label for a specific health card value.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/coverage-class"/&gt;
+    &lt;code value="plan"/&gt;
+    &lt;display value="Plan"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
   </si>
   <si>
@@ -1185,10 +1281,10 @@
     <t>Coverage.class.value</t>
   </si>
   <si>
-    <t>Value associated with the type</t>
-  </si>
-  <si>
-    <t>The alphanumeric string value associated with the insurer issued label.</t>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Code of the Product/InsurancePlan.</t>
   </si>
   <si>
     <t>For example, the Group or Plan number.</t>
@@ -1209,10 +1305,10 @@
     <t>Coverage.class.name</t>
   </si>
   <si>
-    <t>Human readable description of the type and value</t>
-  </si>
-  <si>
-    <t>A short description for the class.</t>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Name of the Product/InsurancePlan.</t>
   </si>
   <si>
     <t>Used to provide a meaningful description in correspondence to the patient.</t>
@@ -1719,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1729,7 +1825,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2719,11 +2815,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -2746,9 +2842,7 @@
       <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>76</v>
@@ -2785,19 +2879,17 @@
         <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2809,13 +2901,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2832,43 +2924,41 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2916,7 +3006,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2925,16 +3015,16 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2951,9 +3041,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2962,19 +3054,19 @@
         <v>85</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>144</v>
@@ -2982,12 +3074,8 @@
       <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>76</v>
       </c>
@@ -3023,17 +3111,19 @@
         <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3042,65 +3132,69 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
       </c>
@@ -3148,25 +3242,25 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -3183,41 +3277,43 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3253,19 +3349,17 @@
         <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3277,25 +3371,25 @@
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -3317,13 +3411,13 @@
         <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>168</v>
@@ -3331,12 +3425,8 @@
       <c r="L14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3360,13 +3450,13 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -3384,7 +3474,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3396,13 +3486,13 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>76</v>
@@ -3411,7 +3501,7 @@
         <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>76</v>
@@ -3419,18 +3509,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>76</v>
@@ -3439,23 +3529,21 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3479,49 +3567,49 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3530,7 +3618,7 @@
         <v>76</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
@@ -3538,7 +3626,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3555,22 +3643,26 @@
         <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3594,13 +3686,13 @@
         <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>76</v>
@@ -3618,7 +3710,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3630,13 +3722,13 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3645,7 +3737,7 @@
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3653,18 +3745,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
@@ -3673,21 +3765,23 @@
         <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3711,49 +3805,49 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3762,7 +3856,7 @@
         <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>76</v>
@@ -3770,7 +3864,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3781,7 +3875,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3790,23 +3884,19 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3854,25 +3944,25 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3881,7 +3971,7 @@
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>76</v>
@@ -3893,14 +3983,14 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -3912,15 +4002,17 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3957,37 +4049,37 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -4008,7 +4100,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4024,21 +4116,23 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
@@ -4074,19 +4168,19 @@
         <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4098,13 +4192,13 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -4113,7 +4207,7 @@
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>76</v>
@@ -4121,7 +4215,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4141,23 +4235,19 @@
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -4205,7 +4295,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4217,13 +4307,13 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -4232,7 +4322,7 @@
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>76</v>
@@ -4240,18 +4330,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>76</v>
@@ -4260,19 +4350,19 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4310,37 +4400,37 @@
         <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -4349,7 +4439,7 @@
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4357,7 +4447,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4380,17 +4470,19 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4415,11 +4507,13 @@
         <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>76</v>
@@ -4437,7 +4531,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4455,7 +4549,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4464,7 +4558,7 @@
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>76</v>
@@ -4472,7 +4566,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4498,15 +4592,15 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4554,7 +4648,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4572,7 +4666,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4581,7 +4675,7 @@
         <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>76</v>
@@ -4589,7 +4683,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4612,19 +4706,17 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4649,13 +4741,11 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
@@ -4673,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4691,7 +4781,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4700,7 +4790,7 @@
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>76</v>
@@ -4708,7 +4798,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4734,16 +4824,14 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4792,7 +4880,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4810,7 +4898,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4819,7 +4907,7 @@
         <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>76</v>
@@ -4827,7 +4915,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4850,19 +4938,19 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4875,7 +4963,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4911,7 +4999,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4929,7 +5017,7 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4938,7 +5026,7 @@
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>76</v>
@@ -4946,7 +5034,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4954,7 +5042,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4972,15 +5060,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4992,7 +5082,7 @@
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -5028,7 +5118,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5046,7 +5136,7 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -5055,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>76</v>
@@ -5063,7 +5153,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5086,16 +5176,20 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
@@ -5107,7 +5201,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -5143,7 +5237,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5161,7 +5255,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -5170,7 +5264,7 @@
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>76</v>
@@ -5178,7 +5272,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5186,7 +5280,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
@@ -5201,16 +5295,16 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>273</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5224,7 +5318,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -5260,7 +5354,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5278,7 +5372,7 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -5287,7 +5381,7 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5295,11 +5389,9 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5320,20 +5412,16 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>143</v>
+        <v>276</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5381,13 +5469,13 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -5396,27 +5484,27 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5436,18 +5524,20 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5496,7 +5586,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5508,13 +5598,13 @@
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5523,7 +5613,7 @@
         <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>76</v>
@@ -5531,18 +5621,20 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="C33" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5551,21 +5643,23 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5601,19 +5695,19 @@
         <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5625,25 +5719,25 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5665,13 +5759,13 @@
         <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>168</v>
@@ -5679,12 +5773,8 @@
       <c r="L34" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5708,13 +5798,13 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5732,7 +5822,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5744,13 +5834,13 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5759,7 +5849,7 @@
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5767,18 +5857,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5787,23 +5877,21 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5827,49 +5915,49 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5878,7 +5966,7 @@
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -5886,7 +5974,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5903,22 +5991,26 @@
         <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5942,13 +6034,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5966,7 +6058,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5978,13 +6070,13 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5993,7 +6085,7 @@
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>76</v>
@@ -6001,18 +6093,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -6021,21 +6113,23 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -6059,49 +6153,49 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -6110,7 +6204,7 @@
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>76</v>
@@ -6118,7 +6212,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6129,7 +6223,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>76</v>
@@ -6138,23 +6232,19 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -6202,25 +6292,25 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -6229,7 +6319,7 @@
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6241,14 +6331,14 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -6260,15 +6350,17 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
@@ -6305,37 +6397,37 @@
         <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -6356,7 +6448,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6372,21 +6464,23 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6422,19 +6516,19 @@
         <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6446,13 +6540,13 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -6461,7 +6555,7 @@
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>76</v>
@@ -6469,7 +6563,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6489,23 +6583,19 @@
         <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6553,7 +6643,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6565,13 +6655,13 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6580,7 +6670,7 @@
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6588,18 +6678,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>76</v>
@@ -6608,19 +6698,19 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6658,37 +6748,37 @@
         <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6697,7 +6787,7 @@
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6705,7 +6795,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6713,7 +6803,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>85</v>
@@ -6728,17 +6818,19 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6748,7 +6840,7 @@
         <v>76</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>76</v>
@@ -6787,7 +6879,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6805,7 +6897,7 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6814,7 +6906,7 @@
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -6822,7 +6914,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6848,15 +6940,15 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6904,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6922,7 +7014,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6931,7 +7023,7 @@
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>76</v>
@@ -6939,7 +7031,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6947,7 +7039,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>85</v>
@@ -6962,19 +7054,17 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6984,7 +7074,7 @@
         <v>76</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>76</v>
@@ -7023,7 +7113,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7041,7 +7131,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -7050,7 +7140,7 @@
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -7058,7 +7148,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7084,16 +7174,14 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -7142,7 +7230,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7160,7 +7248,7 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -7169,7 +7257,7 @@
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7177,7 +7265,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7200,19 +7288,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -7225,7 +7313,7 @@
         <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>76</v>
@@ -7261,7 +7349,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7279,7 +7367,7 @@
         <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -7288,7 +7376,7 @@
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7296,7 +7384,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7322,15 +7410,17 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
       </c>
@@ -7342,7 +7432,7 @@
         <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>76</v>
@@ -7378,7 +7468,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7396,7 +7486,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -7405,7 +7495,7 @@
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>76</v>
@@ -7413,7 +7503,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7436,16 +7526,20 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>76</v>
       </c>
@@ -7457,7 +7551,7 @@
         <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>76</v>
@@ -7493,7 +7587,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7511,7 +7605,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7520,7 +7614,7 @@
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7528,7 +7622,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7551,16 +7645,16 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>273</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7574,7 +7668,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7610,7 +7704,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7628,7 +7722,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7637,7 +7731,7 @@
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7645,7 +7739,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7653,7 +7747,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>85</v>
@@ -7662,26 +7756,22 @@
         <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>105</v>
+        <v>276</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7690,7 +7780,7 @@
         <v>76</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>76</v>
@@ -7705,13 +7795,13 @@
         <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>76</v>
@@ -7729,10 +7819,10 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>85</v>
@@ -7744,19 +7834,19 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>76</v>
@@ -7764,7 +7854,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7787,18 +7877,18 @@
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>178</v>
+        <v>283</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7822,13 +7912,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7846,7 +7936,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7864,16 +7954,16 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>76</v>
@@ -7881,7 +7971,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7889,7 +7979,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>85</v>
@@ -7898,25 +7988,25 @@
         <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>301</v>
+        <v>105</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7941,13 +8031,11 @@
         <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>76</v>
@@ -7965,10 +8053,10 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>85</v>
@@ -7980,27 +8068,27 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8011,7 +8099,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>76</v>
@@ -8023,19 +8111,17 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -8060,13 +8146,13 @@
         <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>76</v>
@@ -8084,7 +8170,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8105,21 +8191,21 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>308</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8142,17 +8228,19 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -8201,7 +8289,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8222,21 +8310,21 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8244,10 +8332,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>76</v>
@@ -8259,15 +8347,17 @@
         <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
         <v>324</v>
       </c>
@@ -8318,10 +8408,10 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>85</v>
@@ -8333,27 +8423,27 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8364,7 +8454,7 @@
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>76</v>
@@ -8379,16 +8469,14 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>76</v>
@@ -8437,7 +8525,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8458,21 +8546,21 @@
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8480,7 +8568,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>85</v>
@@ -8492,22 +8580,20 @@
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>76</v>
@@ -8532,13 +8618,13 @@
         <v>76</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>76</v>
@@ -8556,10 +8642,10 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>85</v>
@@ -8571,27 +8657,27 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8602,7 +8688,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>76</v>
@@ -8614,17 +8700,19 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>266</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>76</v>
@@ -8673,7 +8761,7 @@
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8688,19 +8776,19 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>76</v>
@@ -8708,7 +8796,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8716,10 +8804,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>76</v>
@@ -8728,22 +8816,22 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>350</v>
+        <v>188</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8768,13 +8856,13 @@
         <v>76</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>76</v>
@@ -8792,13 +8880,13 @@
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>76</v>
@@ -8813,21 +8901,21 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8835,10 +8923,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -8847,22 +8935,20 @@
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>76</v>
@@ -8911,13 +8997,13 @@
         <v>76</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
@@ -8926,19 +9012,19 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>76</v>
@@ -8946,7 +9032,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8972,10 +9058,10 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9026,7 +9112,7 @@
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9044,7 +9130,7 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -9061,11 +9147,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9087,13 +9173,13 @@
         <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9131,19 +9217,19 @@
         <v>76</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9155,13 +9241,13 @@
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -9178,43 +9264,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>360</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>76</v>
       </c>
@@ -9262,25 +9346,25 @@
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>128</v>
+        <v>366</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -9289,7 +9373,7 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>76</v>
@@ -9297,7 +9381,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9320,75 +9404,77 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>178</v>
+        <v>360</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Q65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AF65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>97</v>
@@ -9397,7 +9483,7 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9406,7 +9492,7 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>76</v>
@@ -9414,7 +9500,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9437,19 +9523,19 @@
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>377</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>76</v>
@@ -9498,13 +9584,13 @@
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
@@ -9519,7 +9605,7 @@
         <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>383</v>
@@ -9541,7 +9627,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>85</v>
@@ -9553,20 +9639,22 @@
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>387</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>76</v>
@@ -9621,7 +9709,7 @@
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
@@ -9639,18 +9727,18 @@
         <v>76</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9670,21 +9758,19 @@
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>391</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>392</v>
+        <v>168</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>393</v>
+        <v>169</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>394</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>76</v>
       </c>
@@ -9732,7 +9818,7 @@
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>390</v>
+        <v>170</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9744,13 +9830,13 @@
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9759,7 +9845,7 @@
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>76</v>
@@ -9767,18 +9853,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>76</v>
@@ -9787,21 +9873,21 @@
         <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>396</v>
+        <v>173</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9849,31 +9935,31 @@
         <v>76</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>395</v>
+        <v>176</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>76</v>
@@ -9884,11 +9970,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9901,25 +9987,25 @@
         <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>360</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>404</v>
+        <v>150</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>405</v>
+        <v>151</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>76</v>
@@ -9968,7 +10054,7 @@
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9980,13 +10066,13 @@
         <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -10003,7 +10089,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10011,7 +10097,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>85</v>
@@ -10023,19 +10109,21 @@
         <v>76</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>157</v>
+        <v>400</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>158</v>
+        <v>401</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>76</v>
       </c>
@@ -10044,7 +10132,7 @@
         <v>76</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>76</v>
+        <v>403</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>76</v>
@@ -10059,13 +10147,13 @@
         <v>76</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>76</v>
@@ -10083,10 +10171,10 @@
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>159</v>
+        <v>399</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>85</v>
@@ -10095,13 +10183,13 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -10118,18 +10206,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>76</v>
@@ -10138,21 +10226,23 @@
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>132</v>
+        <v>407</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>162</v>
+        <v>408</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
       </c>
@@ -10200,77 +10290,75 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>166</v>
+        <v>406</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>140</v>
+        <v>417</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>76</v>
@@ -10319,42 +10407,42 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10365,7 +10453,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>76</v>
@@ -10377,19 +10465,17 @@
         <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>76</v>
@@ -10414,13 +10500,13 @@
         <v>76</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>76</v>
@@ -10438,7 +10524,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10465,7 +10551,7 @@
         <v>76</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>76</v>
@@ -10473,7 +10559,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10481,10 +10567,10 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>76</v>
@@ -10496,19 +10582,17 @@
         <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>417</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>76</v>
@@ -10557,10 +10641,10 @@
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>85</v>
@@ -10581,29 +10665,29 @@
         <v>76</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -10615,17 +10699,19 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10674,7 +10760,7 @@
         <v>76</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10709,7 +10795,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10735,10 +10821,10 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10789,7 +10875,7 @@
         <v>76</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -10807,7 +10893,7 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -10824,11 +10910,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10850,13 +10936,13 @@
         <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10906,7 +10992,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10918,13 +11004,13 @@
         <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -10941,11 +11027,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10967,16 +11053,16 @@
         <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>76</v>
@@ -11025,7 +11111,7 @@
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11037,7 +11123,7 @@
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>76</v>
@@ -11060,7 +11146,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11068,7 +11154,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>85</v>
@@ -11083,17 +11169,19 @@
         <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>76</v>
@@ -11118,13 +11206,13 @@
         <v>76</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>432</v>
+        <v>193</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>76</v>
@@ -11142,10 +11230,10 @@
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>85</v>
@@ -11177,7 +11265,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11185,7 +11273,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>85</v>
@@ -11200,17 +11288,19 @@
         <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>266</v>
+        <v>445</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="N81" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>76</v>
@@ -11259,10 +11349,10 @@
         <v>76</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>85</v>
@@ -11283,18 +11373,18 @@
         <v>76</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>76</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11305,7 +11395,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>76</v>
@@ -11317,19 +11407,17 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>76</v>
@@ -11378,13 +11466,13 @@
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
@@ -11413,7 +11501,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11424,7 +11512,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>76</v>
@@ -11436,18 +11524,16 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>445</v>
+        <v>87</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>446</v>
+        <v>168</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>447</v>
+        <v>169</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>76</v>
       </c>
@@ -11495,41 +11581,747 @@
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>444</v>
+        <v>170</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI83" t="s" s="2">
+      <c r="G84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI86" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>309</v>
+      <c r="AJ86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO83">
+  <autoFilter ref="A1:AO89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11539,7 +12331,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-coverage.xlsx
+++ b/StructureDefinition-openimis-coverage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
